--- a/Team-Data/2007-08/3-23-2007-08.xlsx
+++ b/Team-Data/2007-08/3-23-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -995,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1144,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1320,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1529,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
@@ -1541,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
         <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.629</v>
+        <v>0.638</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
         <v>79</v>
@@ -1606,22 +1673,22 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8139999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
         <v>43.2</v>
@@ -1630,43 +1697,43 @@
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
         <v>21.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1681,25 +1748,25 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
@@ -1708,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1726,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,7 +1843,7 @@
         <v>39.8</v>
       </c>
       <c r="J8" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.466</v>
@@ -1788,16 +1855,16 @@
         <v>19.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
         <v>11.5</v>
@@ -1806,13 +1873,13 @@
         <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U8" t="n">
         <v>24.4</v>
       </c>
       <c r="V8" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
@@ -1827,16 +1894,16 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
         <v>109.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,16 +1948,16 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
         <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>0.71</v>
+        <v>0.721</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,10 +2025,10 @@
         <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
@@ -1973,10 +2040,10 @@
         <v>0.376</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
         <v>0.763</v>
@@ -1985,7 +2052,7 @@
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
         <v>41</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,16 +2115,16 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2066,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
         <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2143,25 +2210,25 @@
         <v>89.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L10" t="n">
         <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R10" t="n">
         <v>12.4</v>
@@ -2179,19 +2246,19 @@
         <v>13.2</v>
       </c>
       <c r="W10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB10" t="n">
         <v>110.9</v>
@@ -2200,13 +2267,13 @@
         <v>2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2233,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2245,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2263,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>28</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -2394,13 +2461,13 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2779,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,37 +2935,37 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>7.7</v>
       </c>
       <c r="M14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
         <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
         <v>24</v>
@@ -2907,7 +2974,7 @@
         <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
@@ -2922,25 +2989,25 @@
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2970,19 +3037,19 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2994,10 +3061,10 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3143,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3346,10 +3413,10 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU17" t="n">
         <v>18</v>
@@ -3537,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3668,7 +3735,7 @@
         <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3865,7 +3932,7 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4029,7 +4096,7 @@
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4247,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -4387,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -4569,13 +4636,13 @@
         <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
@@ -4626,7 +4693,7 @@
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG24" t="n">
         <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4793,10 +4860,10 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -4972,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>23</v>
@@ -4984,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M27" t="n">
         <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O27" t="n">
         <v>16.8</v>
@@ -5255,22 +5322,22 @@
         <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5279,40 +5346,40 @@
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z27" t="n">
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5333,16 +5400,16 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>16</v>
@@ -5363,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
         <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5607,19 +5674,19 @@
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.402</v>
+        <v>0.404</v>
       </c>
       <c r="O29" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R29" t="n">
         <v>9.699999999999999</v>
@@ -5655,13 +5722,13 @@
         <v>100</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>16</v>
@@ -5670,7 +5737,7 @@
         <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5724,16 +5791,16 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5962,37 +6029,37 @@
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.345</v>
       </c>
       <c r="O31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q31" t="n">
         <v>0.786</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
         <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U31" t="n">
         <v>19.2</v>
@@ -6001,28 +6068,28 @@
         <v>13.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB31" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,10 +6104,10 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6067,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6082,13 +6149,13 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-23-2007-08</t>
+          <t>2008-03-23</t>
         </is>
       </c>
     </row>
